--- a/biology/Biologie cellulaire et moléculaire/Antipaïne/Antipaïne.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Antipaïne/Antipaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antipa%C3%AFne</t>
+          <t>Antipaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'antipaïne ou antipain[4]est un oligopeptide isolé à partir d'actinomycètes et utilisé en recherche biochimique comme inhibiteur de protéase. C'est le premier peptide naturel pour lequel on a pu établir qu'il contient un groupe uréylène –NH–CO–NH–[5]. Il s'agit spécifiquement d'un inhibiteur de la trypsine et de la papaïne[6].
-L'antipaïne a été cristallisée sous forme complexée avec la carboxypeptidase du blé[7] et l'oligopeptidase B (en) de Leishmania major (en)[8]. Dans ces deux cas, le carbonyle de l'arginine terminale de l'antipaïne forme une liaison covalente avec la sérine du site actif de la peptidase, ici des protéases à sérine.
+L'antipaïne ou antipainest un oligopeptide isolé à partir d'actinomycètes et utilisé en recherche biochimique comme inhibiteur de protéase. C'est le premier peptide naturel pour lequel on a pu établir qu'il contient un groupe uréylène –NH–CO–NH–. Il s'agit spécifiquement d'un inhibiteur de la trypsine et de la papaïne.
+L'antipaïne a été cristallisée sous forme complexée avec la carboxypeptidase du blé et l'oligopeptidase B (en) de Leishmania major (en). Dans ces deux cas, le carbonyle de l'arginine terminale de l'antipaïne forme une liaison covalente avec la sérine du site actif de la peptidase, ici des protéases à sérine.
 L'antipain est aussi utilisé comme antibiotique inhibiteur de protéase.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antipa%C3%AFne</t>
+          <t>Antipaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Chaîne peptidique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure de cet oligopeptide peut être décrite comme N2-{[(1S)-1-carboxy-2-phényléthyl]carbamoyl}-N5-(diaminométhylidène)-L-ornithyl-N-{(2S)-5-[(diaminométhylidène)amino]-1-oxopentan-2-yl}-L-valinamide.
 </t>
